--- a/timetable_spring_2024.xlsx
+++ b/timetable_spring_2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1079">
   <si>
     <t>Saturday
 Nov. 25,
@@ -1775,7 +1775,7 @@
     <t>SDA Lab (SE-G)</t>
   </si>
   <si>
-    <t>DB Lab (E)</t>
+    <t>`</t>
   </si>
   <si>
     <t>DB Lab (SE-D)</t>
@@ -2364,9 +2364,6 @@
   </si>
   <si>
     <t>Game Theory (AI-JK)</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>OOP Lab (CS-D)</t>
@@ -4767,17 +4764,17 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="68.25" customFormat="1" s="112">
       <c r="A1" s="113" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39" customFormat="1" s="112">
       <c r="A2" s="114" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24" customFormat="1" s="112">
       <c r="A3" s="115" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +4823,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="88" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>510</v>
@@ -5035,17 +5032,17 @@
         <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="50"/>
       <c r="E6" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="50"/>
       <c r="H6" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="45"/>
@@ -5053,22 +5050,22 @@
       <c r="L6" s="6"/>
       <c r="M6" s="46"/>
       <c r="N6" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="23" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="48"/>
       <c r="T6" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="45"/>
       <c r="W6" s="30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="X6" s="6"/>
     </row>
@@ -5077,23 +5074,23 @@
         <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="50"/>
       <c r="H7" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
@@ -5103,7 +5100,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="48"/>
       <c r="T7" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="45"/>
@@ -5117,23 +5114,23 @@
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="50"/>
       <c r="E8" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="50"/>
       <c r="H8" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
@@ -5143,12 +5140,12 @@
       <c r="R8" s="6"/>
       <c r="S8" s="48"/>
       <c r="T8" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="45"/>
       <c r="W8" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X8" s="6"/>
     </row>
@@ -5157,17 +5154,17 @@
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="50"/>
       <c r="E9" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="50"/>
       <c r="H9" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="45"/>
@@ -5175,7 +5172,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="46"/>
       <c r="N9" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="48"/>
@@ -5183,7 +5180,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="48"/>
       <c r="T9" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="45"/>
@@ -5197,7 +5194,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -5205,13 +5202,13 @@
       <c r="F10" s="53"/>
       <c r="G10" s="50"/>
       <c r="H10" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
       <c r="K10" s="6"/>
       <c r="L10" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
@@ -5231,7 +5228,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -5239,13 +5236,13 @@
       <c r="F11" s="53"/>
       <c r="G11" s="50"/>
       <c r="H11" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
       <c r="K11" s="6"/>
       <c r="L11" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
@@ -5265,17 +5262,17 @@
         <v>80</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="50"/>
       <c r="E12" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="50"/>
       <c r="H12" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="45"/>
@@ -5283,12 +5280,12 @@
       <c r="L12" s="6"/>
       <c r="M12" s="45"/>
       <c r="N12" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="48"/>
@@ -5303,27 +5300,27 @@
         <v>86</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="50"/>
       <c r="E13" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="50"/>
       <c r="H13" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="45"/>
       <c r="K13" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="45"/>
       <c r="N13" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="16"/>
@@ -5341,30 +5338,30 @@
         <v>93</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="16"/>
       <c r="E14" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
       <c r="L14" s="6"/>
       <c r="M14" s="45"/>
       <c r="N14" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="48"/>
@@ -5379,25 +5376,25 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="16"/>
       <c r="E15" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
       <c r="L15" s="6"/>
       <c r="M15" s="45"/>
       <c r="N15" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="48"/>
@@ -5415,17 +5412,17 @@
         <v>107</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="50"/>
       <c r="E16" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="50"/>
       <c r="H16" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="45"/>
@@ -5433,12 +5430,12 @@
       <c r="L16" s="6"/>
       <c r="M16" s="45"/>
       <c r="N16" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="48"/>
@@ -5453,32 +5450,32 @@
         <v>114</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="50"/>
       <c r="E17" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="50"/>
       <c r="H17" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="45"/>
       <c r="K17" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="45"/>
       <c r="N17" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="48"/>
@@ -5493,32 +5490,32 @@
         <v>119</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="50"/>
       <c r="E18" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="50"/>
       <c r="H18" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="45"/>
       <c r="K18" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="45"/>
       <c r="N18" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="48"/>
@@ -5533,32 +5530,32 @@
         <v>126</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="50"/>
       <c r="E19" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="50"/>
       <c r="H19" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="45"/>
       <c r="K19" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="45"/>
       <c r="N19" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="48"/>
       <c r="Q19" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="48"/>
@@ -5573,32 +5570,32 @@
         <v>131</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="50"/>
       <c r="E20" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="50"/>
       <c r="H20" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="45"/>
       <c r="K20" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="45"/>
       <c r="N20" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="48"/>
@@ -5613,22 +5610,22 @@
         <v>138</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="50"/>
       <c r="E21" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="50"/>
       <c r="H21" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="45"/>
       <c r="K21" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="45"/>
@@ -5638,7 +5635,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="48"/>
@@ -5653,32 +5650,32 @@
         <v>144</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="50"/>
       <c r="E22" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="50"/>
       <c r="H22" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="50"/>
       <c r="K22" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="45"/>
       <c r="N22" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="48"/>
@@ -5693,32 +5690,32 @@
         <v>151</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="50"/>
       <c r="E23" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="50"/>
       <c r="H23" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="45"/>
       <c r="K23" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="45"/>
       <c r="N23" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="48"/>
@@ -5733,32 +5730,32 @@
         <v>158</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="50"/>
       <c r="E24" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="50"/>
       <c r="H24" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="45"/>
       <c r="K24" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="45"/>
       <c r="N24" s="29" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="48"/>
@@ -5773,22 +5770,22 @@
         <v>163</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="50"/>
       <c r="E25" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="50"/>
       <c r="H25" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="45"/>
       <c r="K25" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="45"/>
@@ -5811,32 +5808,32 @@
         <v>170</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="50"/>
       <c r="E26" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="50"/>
       <c r="H26" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="45"/>
       <c r="K26" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="45"/>
       <c r="N26" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="48"/>
@@ -5851,22 +5848,22 @@
         <v>175</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="50"/>
       <c r="E27" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="50"/>
       <c r="H27" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="45"/>
       <c r="K27" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="45"/>
@@ -5874,7 +5871,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="48"/>
       <c r="Q27" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="48"/>
@@ -5889,27 +5886,27 @@
         <v>180</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="50"/>
       <c r="E28" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="50"/>
       <c r="H28" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="45"/>
       <c r="K28" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="45"/>
       <c r="N28" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="48"/>
@@ -5927,32 +5924,32 @@
         <v>186</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="50"/>
       <c r="E29" s="27" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="50"/>
       <c r="H29" s="27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="45"/>
       <c r="K29" s="27" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="45"/>
       <c r="N29" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="48"/>
       <c r="Q29" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="48"/>
@@ -5967,22 +5964,22 @@
         <v>193</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="50"/>
       <c r="E30" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="50"/>
       <c r="H30" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="45"/>
       <c r="K30" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="45"/>
@@ -6003,22 +6000,22 @@
         <v>198</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="50"/>
       <c r="E31" s="22" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="46"/>
       <c r="H31" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="16"/>
       <c r="K31" s="106" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="45"/>
@@ -6039,17 +6036,17 @@
         <v>203</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="50"/>
       <c r="E32" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="50"/>
       <c r="H32" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="45"/>
@@ -6057,12 +6054,12 @@
       <c r="L32" s="6"/>
       <c r="M32" s="48"/>
       <c r="N32" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R32" s="6"/>
       <c r="S32" s="45"/>
@@ -6077,17 +6074,17 @@
         <v>209</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="50"/>
       <c r="E33" s="25" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="50"/>
       <c r="H33" s="25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="45"/>
@@ -6097,12 +6094,12 @@
       <c r="L33" s="6"/>
       <c r="M33" s="45"/>
       <c r="N33" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="48"/>
@@ -6117,27 +6114,27 @@
         <v>215</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="50"/>
       <c r="E34" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="50"/>
       <c r="H34" s="25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="45"/>
       <c r="K34" s="25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="45"/>
       <c r="N34" s="25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="48"/>
@@ -6155,32 +6152,32 @@
         <v>221</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="50"/>
       <c r="E35" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="50"/>
       <c r="H35" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="50"/>
       <c r="K35" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="45"/>
       <c r="N35" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="48"/>
@@ -6195,32 +6192,32 @@
         <v>227</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="50"/>
       <c r="E36" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="50"/>
       <c r="H36" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="50"/>
       <c r="K36" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="45"/>
       <c r="N36" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="48"/>
       <c r="Q36" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="48"/>
@@ -6235,22 +6232,22 @@
         <v>234</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="50"/>
       <c r="E37" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="50"/>
       <c r="H37" s="25" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="45"/>
       <c r="K37" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="45"/>
@@ -6274,17 +6271,17 @@
       <c r="C38" s="6"/>
       <c r="D38" s="108"/>
       <c r="E38" s="106" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="46"/>
       <c r="H38" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="45"/>
       <c r="K38" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="48"/>
@@ -6305,22 +6302,22 @@
         <v>246</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="95"/>
       <c r="E39" s="109" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="48"/>
       <c r="H39" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="16"/>
       <c r="K39" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="48"/>
@@ -6354,7 +6351,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="16"/>
       <c r="K40" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="45"/>
@@ -6375,22 +6372,22 @@
         <v>255</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="107"/>
       <c r="E41" s="106" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="48"/>
       <c r="H41" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="45"/>
       <c r="K41" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="45"/>
@@ -6411,17 +6408,17 @@
         <v>259</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="48"/>
       <c r="E42" s="106" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="48"/>
       <c r="H42" s="37" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="16"/>
@@ -6481,7 +6478,7 @@
         <v>269</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -6489,7 +6486,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="104"/>
       <c r="H44" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I44" s="47"/>
       <c r="J44" s="47"/>
@@ -6497,7 +6494,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="104"/>
       <c r="N44" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O44" s="47"/>
       <c r="P44" s="47"/>
@@ -6515,7 +6512,7 @@
         <v>273</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -6523,7 +6520,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="104"/>
       <c r="H45" s="18" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
@@ -6531,7 +6528,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="104"/>
       <c r="N45" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O45" s="47"/>
       <c r="P45" s="47"/>
@@ -6549,7 +6546,7 @@
         <v>276</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -6557,7 +6554,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="104"/>
       <c r="H46" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
@@ -6565,7 +6562,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="104"/>
       <c r="N46" s="21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O46" s="47"/>
       <c r="P46" s="47"/>
@@ -6583,7 +6580,7 @@
         <v>280</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -6591,7 +6588,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="104"/>
       <c r="H47" s="18" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I47" s="47"/>
       <c r="J47" s="47"/>
@@ -6599,7 +6596,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="104"/>
       <c r="N47" s="21" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
@@ -6617,7 +6614,7 @@
         <v>284</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -6625,7 +6622,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="104"/>
       <c r="H48" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
@@ -6633,7 +6630,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="104"/>
       <c r="N48" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O48" s="47"/>
       <c r="P48" s="47"/>
@@ -6651,7 +6648,7 @@
         <v>288</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -6659,7 +6656,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="104"/>
       <c r="H49" s="23" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="47"/>
@@ -6667,7 +6664,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="104"/>
       <c r="N49" s="26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
@@ -6685,7 +6682,7 @@
         <v>291</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -6717,7 +6714,7 @@
         <v>295</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -6725,7 +6722,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="104"/>
       <c r="H51" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I51" s="47"/>
       <c r="J51" s="47"/>
@@ -6733,7 +6730,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="104"/>
       <c r="N51" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
@@ -6751,7 +6748,7 @@
         <v>298</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -6759,7 +6756,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="104"/>
       <c r="H52" s="29" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I52" s="47"/>
       <c r="J52" s="47"/>
@@ -6767,7 +6764,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="66"/>
       <c r="N52" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O52" s="47"/>
       <c r="P52" s="47"/>
@@ -6785,7 +6782,7 @@
         <v>302</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -6815,7 +6812,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -6851,7 +6848,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="104"/>
       <c r="H55" s="10" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I55" s="47"/>
       <c r="J55" s="47"/>
@@ -6859,7 +6856,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="104"/>
       <c r="N55" s="10" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O55" s="47"/>
       <c r="P55" s="47"/>
@@ -6885,7 +6882,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="104"/>
       <c r="H56" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I56" s="47"/>
       <c r="J56" s="47"/>
@@ -6893,7 +6890,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="104"/>
       <c r="N56" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O56" s="47"/>
       <c r="P56" s="47"/>
@@ -6911,7 +6908,7 @@
         <v>315</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -6919,7 +6916,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="104"/>
       <c r="H57" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I57" s="47"/>
       <c r="J57" s="47"/>
@@ -6945,7 +6942,7 @@
         <v>319</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
@@ -6953,7 +6950,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="104"/>
       <c r="H58" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I58" s="47"/>
       <c r="J58" s="47"/>
@@ -6979,7 +6976,7 @@
         <v>322</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
@@ -6987,7 +6984,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="104"/>
       <c r="H59" s="10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I59" s="47"/>
       <c r="J59" s="47"/>
@@ -7454,7 +7451,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="88" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>510</v>
@@ -7715,13 +7712,13 @@
       <c r="F7" s="6"/>
       <c r="G7" s="50"/>
       <c r="H7" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
@@ -7781,7 +7778,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -7789,13 +7786,13 @@
       <c r="F9" s="53"/>
       <c r="G9" s="50"/>
       <c r="H9" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
@@ -7817,7 +7814,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -7830,7 +7827,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="16"/>
       <c r="K10" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
@@ -7995,7 +7992,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
@@ -8031,7 +8028,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
@@ -8611,12 +8608,12 @@
       <c r="L30" s="6"/>
       <c r="M30" s="45"/>
       <c r="N30" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="48"/>
@@ -9133,7 +9130,7 @@
         <v>269</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -9141,7 +9138,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="104"/>
       <c r="H45" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
@@ -9149,7 +9146,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="66"/>
       <c r="N45" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O45" s="47"/>
       <c r="P45" s="47"/>
@@ -9167,7 +9164,7 @@
         <v>273</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -9175,7 +9172,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="66"/>
       <c r="H46" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
@@ -9183,7 +9180,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="66"/>
       <c r="N46" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O46" s="47"/>
       <c r="P46" s="47"/>
@@ -9201,7 +9198,7 @@
         <v>276</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -9209,7 +9206,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="66"/>
       <c r="H47" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I47" s="47"/>
       <c r="J47" s="47"/>
@@ -9217,7 +9214,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="66"/>
       <c r="N47" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
@@ -9235,7 +9232,7 @@
         <v>280</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -9243,7 +9240,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="66"/>
       <c r="H48" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
@@ -9251,7 +9248,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="66"/>
       <c r="N48" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O48" s="47"/>
       <c r="P48" s="47"/>
@@ -9269,7 +9266,7 @@
         <v>284</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -9277,7 +9274,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="66"/>
       <c r="H49" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="47"/>
@@ -9285,7 +9282,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="66"/>
       <c r="N49" s="23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
@@ -9303,7 +9300,7 @@
         <v>288</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -9311,7 +9308,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="66"/>
       <c r="H50" s="22" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I50" s="47"/>
       <c r="J50" s="47"/>
@@ -9319,7 +9316,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="66"/>
       <c r="N50" s="22" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O50" s="47"/>
       <c r="P50" s="47"/>
@@ -9337,7 +9334,7 @@
         <v>291</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -9345,7 +9342,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="66"/>
       <c r="H51" s="22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I51" s="47"/>
       <c r="J51" s="47"/>
@@ -9353,7 +9350,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="66"/>
       <c r="N51" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
@@ -9371,7 +9368,7 @@
         <v>295</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -9379,7 +9376,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="66"/>
       <c r="H52" s="25" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I52" s="47"/>
       <c r="J52" s="47"/>
@@ -9387,7 +9384,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="66"/>
       <c r="N52" s="23" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O52" s="47"/>
       <c r="P52" s="47"/>
@@ -9405,7 +9402,7 @@
         <v>298</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -9413,7 +9410,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="66"/>
       <c r="H53" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I53" s="47"/>
       <c r="J53" s="47"/>
@@ -9437,7 +9434,7 @@
         <v>302</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -9553,7 +9550,7 @@
         <v>315</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
@@ -9561,7 +9558,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="66"/>
       <c r="H58" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I58" s="47"/>
       <c r="J58" s="47"/>
@@ -9587,7 +9584,7 @@
         <v>319</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
@@ -9595,7 +9592,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="66"/>
       <c r="H59" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I59" s="47"/>
       <c r="J59" s="47"/>
@@ -9621,7 +9618,7 @@
         <v>322</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
@@ -9629,7 +9626,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="66"/>
       <c r="H60" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I60" s="47"/>
       <c r="J60" s="47"/>
@@ -9637,7 +9634,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="66"/>
       <c r="N60" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O60" s="47"/>
       <c r="P60" s="47"/>
@@ -10097,7 +10094,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="105" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>510</v>
@@ -10306,42 +10303,42 @@
         <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="50"/>
       <c r="E6" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="50"/>
       <c r="H6" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="45"/>
       <c r="K6" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="46"/>
       <c r="N6" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="23" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="48"/>
       <c r="T6" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="45"/>
       <c r="W6" s="30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="X6" s="6"/>
     </row>
@@ -10350,23 +10347,23 @@
         <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="50"/>
       <c r="H7" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
@@ -10376,7 +10373,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="48"/>
       <c r="T7" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="45"/>
@@ -10390,23 +10387,23 @@
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="50"/>
       <c r="E8" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="50"/>
       <c r="H8" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
@@ -10416,12 +10413,12 @@
       <c r="R8" s="6"/>
       <c r="S8" s="48"/>
       <c r="T8" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="45"/>
       <c r="W8" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X8" s="6"/>
     </row>
@@ -10430,17 +10427,17 @@
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="50"/>
       <c r="E9" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="50"/>
       <c r="H9" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="45"/>
@@ -10448,7 +10445,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="46"/>
       <c r="N9" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="48"/>
@@ -10456,7 +10453,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="48"/>
       <c r="T9" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="45"/>
@@ -10470,17 +10467,17 @@
         <v>70</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="50"/>
       <c r="E10" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="50"/>
@@ -10488,12 +10485,12 @@
       <c r="L10" s="6"/>
       <c r="M10" s="45"/>
       <c r="N10" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="48"/>
       <c r="Q10" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="48"/>
@@ -10508,17 +10505,17 @@
         <v>75</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="50"/>
       <c r="E11" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="50"/>
@@ -10546,7 +10543,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -10554,13 +10551,13 @@
       <c r="F12" s="53"/>
       <c r="G12" s="50"/>
       <c r="H12" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
       <c r="K12" s="6"/>
       <c r="L12" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
@@ -10580,7 +10577,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -10588,13 +10585,13 @@
       <c r="F13" s="53"/>
       <c r="G13" s="50"/>
       <c r="H13" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
       <c r="K13" s="6"/>
       <c r="L13" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
@@ -10614,17 +10611,17 @@
         <v>93</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="45"/>
       <c r="E14" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="50"/>
       <c r="H14" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
@@ -10632,12 +10629,12 @@
       <c r="L14" s="53"/>
       <c r="M14" s="45"/>
       <c r="N14" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="48"/>
@@ -10652,32 +10649,32 @@
         <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="50"/>
       <c r="E15" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="50"/>
       <c r="H15" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="50"/>
       <c r="K15" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="45"/>
       <c r="N15" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="48"/>
@@ -10692,32 +10689,32 @@
         <v>107</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="50"/>
       <c r="E16" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="50"/>
       <c r="H16" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="50"/>
       <c r="K16" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="45"/>
       <c r="N16" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="48"/>
@@ -10732,32 +10729,32 @@
         <v>114</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="50"/>
       <c r="E17" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="50"/>
       <c r="H17" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="45"/>
       <c r="K17" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="45"/>
       <c r="N17" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="48"/>
@@ -10772,32 +10769,32 @@
         <v>119</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="50"/>
       <c r="E18" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="50"/>
       <c r="H18" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="45"/>
       <c r="K18" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="45"/>
       <c r="N18" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="48"/>
@@ -10812,32 +10809,32 @@
         <v>126</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="50"/>
       <c r="E19" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="50"/>
       <c r="H19" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="45"/>
       <c r="K19" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="45"/>
       <c r="N19" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="48"/>
       <c r="Q19" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="48"/>
@@ -10852,22 +10849,22 @@
         <v>131</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="50"/>
       <c r="E20" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="50"/>
       <c r="H20" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="45"/>
       <c r="K20" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="45"/>
@@ -10877,7 +10874,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="48"/>
@@ -10892,22 +10889,22 @@
         <v>138</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="50"/>
       <c r="E21" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="50"/>
       <c r="H21" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="50"/>
       <c r="K21" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="45"/>
@@ -10932,12 +10929,12 @@
         <v>144</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="50"/>
       <c r="E22" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="50"/>
@@ -10952,7 +10949,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="45"/>
       <c r="N22" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="48"/>
@@ -10970,32 +10967,32 @@
         <v>151</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="50"/>
       <c r="E23" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="50"/>
       <c r="H23" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="45"/>
       <c r="K23" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="45"/>
       <c r="N23" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="48"/>
@@ -11010,32 +11007,32 @@
         <v>158</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="50"/>
       <c r="E24" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="50"/>
       <c r="H24" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="16"/>
       <c r="K24" s="106" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="45"/>
       <c r="N24" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="48"/>
@@ -11050,32 +11047,32 @@
         <v>163</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="50"/>
       <c r="E25" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="50"/>
       <c r="H25" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="45"/>
       <c r="K25" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="45"/>
       <c r="N25" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="48"/>
@@ -11090,32 +11087,32 @@
         <v>170</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="50"/>
       <c r="E26" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="50"/>
       <c r="H26" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="16"/>
       <c r="K26" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="45"/>
       <c r="N26" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="48"/>
@@ -11130,12 +11127,12 @@
         <v>175</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="50"/>
       <c r="E27" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="50"/>
@@ -11168,7 +11165,7 @@
         <v>180</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="50"/>
@@ -11178,22 +11175,22 @@
       <c r="F28" s="6"/>
       <c r="G28" s="50"/>
       <c r="H28" s="22" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="16"/>
       <c r="K28" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="45"/>
       <c r="N28" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="48"/>
       <c r="Q28" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="48"/>
@@ -11208,32 +11205,32 @@
         <v>186</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="50"/>
       <c r="E29" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="50"/>
       <c r="H29" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="45"/>
       <c r="K29" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="45"/>
       <c r="N29" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="48"/>
       <c r="Q29" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="48"/>
@@ -11248,17 +11245,17 @@
         <v>193</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="50"/>
       <c r="E30" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="50"/>
       <c r="H30" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="45"/>
@@ -11266,12 +11263,12 @@
       <c r="L30" s="6"/>
       <c r="M30" s="46"/>
       <c r="N30" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="48"/>
@@ -11286,22 +11283,22 @@
         <v>198</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="50"/>
       <c r="E31" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="50"/>
       <c r="H31" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="45"/>
       <c r="K31" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="45"/>
@@ -11322,17 +11319,17 @@
         <v>203</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="50"/>
       <c r="E32" s="25" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="50"/>
       <c r="H32" s="25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="45"/>
@@ -11342,12 +11339,12 @@
       <c r="L32" s="6"/>
       <c r="M32" s="45"/>
       <c r="N32" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R32" s="6"/>
       <c r="S32" s="48"/>
@@ -11362,27 +11359,27 @@
         <v>209</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="50"/>
       <c r="E33" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="50"/>
       <c r="H33" s="25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="45"/>
       <c r="K33" s="25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="45"/>
       <c r="N33" s="25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="48"/>
@@ -11400,22 +11397,22 @@
         <v>215</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="50"/>
       <c r="E34" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="50"/>
       <c r="H34" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="50"/>
       <c r="K34" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="45"/>
@@ -11436,22 +11433,22 @@
         <v>221</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="50"/>
       <c r="E35" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="50"/>
       <c r="H35" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="50"/>
       <c r="K35" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="45"/>
@@ -11472,22 +11469,22 @@
         <v>227</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="50"/>
       <c r="E36" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="50"/>
       <c r="H36" s="25" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="45"/>
       <c r="K36" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="45"/>
@@ -11508,22 +11505,22 @@
         <v>234</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="50"/>
       <c r="E37" s="27" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="50"/>
       <c r="H37" s="27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="45"/>
       <c r="K37" s="27" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="45"/>
@@ -11552,12 +11549,12 @@
       <c r="F38" s="6"/>
       <c r="G38" s="46"/>
       <c r="H38" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="16"/>
       <c r="K38" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="45"/>
@@ -11578,22 +11575,22 @@
         <v>246</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="48"/>
       <c r="E39" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="48"/>
       <c r="H39" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="45"/>
       <c r="K39" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="45"/>
@@ -11619,27 +11616,27 @@
       <c r="C40" s="6"/>
       <c r="D40" s="48"/>
       <c r="E40" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="48"/>
       <c r="H40" s="29" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="45"/>
       <c r="K40" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="45"/>
       <c r="N40" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="45"/>
       <c r="Q40" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="48"/>
@@ -11654,32 +11651,32 @@
         <v>255</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="48"/>
       <c r="E41" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="48"/>
       <c r="H41" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="45"/>
       <c r="K41" s="36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="45"/>
       <c r="N41" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="48"/>
       <c r="Q41" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="48"/>
@@ -11694,27 +11691,27 @@
         <v>259</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="107"/>
       <c r="E42" s="106" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="48"/>
       <c r="H42" s="37" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="45"/>
       <c r="K42" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="45"/>
       <c r="N42" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="48"/>
@@ -11729,7 +11726,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15">
       <c r="A43" s="42" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B43" s="61"/>
       <c r="C43" s="47"/>
@@ -11741,7 +11738,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="63"/>
       <c r="K43" s="43" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="64"/>
@@ -11798,7 +11795,7 @@
         <v>269</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -11806,7 +11803,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="66"/>
       <c r="H45" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
@@ -11814,7 +11811,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="66"/>
       <c r="N45" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O45" s="47"/>
       <c r="P45" s="47"/>
@@ -11832,7 +11829,7 @@
         <v>273</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -11840,7 +11837,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="66"/>
       <c r="H46" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
@@ -11848,7 +11845,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="66"/>
       <c r="N46" s="21" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O46" s="47"/>
       <c r="P46" s="47"/>
@@ -11866,7 +11863,7 @@
         <v>276</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -11874,7 +11871,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="66"/>
       <c r="H47" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I47" s="47"/>
       <c r="J47" s="47"/>
@@ -11882,7 +11879,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="66"/>
       <c r="N47" s="23" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
@@ -11900,7 +11897,7 @@
         <v>280</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -11908,7 +11905,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="66"/>
       <c r="H48" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
@@ -11916,7 +11913,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="66"/>
       <c r="N48" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O48" s="47"/>
       <c r="P48" s="47"/>
@@ -11934,7 +11931,7 @@
         <v>284</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -11942,7 +11939,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="66"/>
       <c r="H49" s="18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="47"/>
@@ -11950,7 +11947,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="66"/>
       <c r="N49" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
@@ -11968,7 +11965,7 @@
         <v>288</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -11976,7 +11973,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="66"/>
       <c r="H50" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I50" s="47"/>
       <c r="J50" s="47"/>
@@ -11984,7 +11981,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="66"/>
       <c r="N50" s="28" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O50" s="47"/>
       <c r="P50" s="47"/>
@@ -12014,7 +12011,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="66"/>
       <c r="N51" s="20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
@@ -12032,7 +12029,7 @@
         <v>295</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -12040,7 +12037,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="66"/>
       <c r="H52" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I52" s="47"/>
       <c r="J52" s="47"/>
@@ -12048,7 +12045,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="66"/>
       <c r="N52" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O52" s="47"/>
       <c r="P52" s="47"/>
@@ -12066,7 +12063,7 @@
         <v>298</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -12074,7 +12071,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="66"/>
       <c r="H53" s="22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I53" s="47"/>
       <c r="J53" s="47"/>
@@ -12082,7 +12079,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="66"/>
       <c r="N53" s="22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O53" s="47"/>
       <c r="P53" s="47"/>
@@ -12100,7 +12097,7 @@
         <v>302</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -12108,7 +12105,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="66"/>
       <c r="H54" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I54" s="47"/>
       <c r="J54" s="47"/>
@@ -12132,7 +12129,7 @@
         <v>305</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -12140,7 +12137,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="66"/>
       <c r="H55" s="29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I55" s="47"/>
       <c r="J55" s="47"/>
@@ -12148,7 +12145,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="66"/>
       <c r="N55" s="29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O55" s="47"/>
       <c r="P55" s="47"/>
@@ -12166,7 +12163,7 @@
         <v>309</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -12174,7 +12171,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="66"/>
       <c r="H56" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I56" s="47"/>
       <c r="J56" s="47"/>
@@ -12198,7 +12195,7 @@
         <v>312</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -12206,7 +12203,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="66"/>
       <c r="H57" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I57" s="47"/>
       <c r="J57" s="47"/>
@@ -12232,7 +12229,7 @@
         <v>315</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
@@ -12240,7 +12237,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="66"/>
       <c r="H58" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I58" s="47"/>
       <c r="J58" s="47"/>
@@ -12266,7 +12263,7 @@
         <v>319</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
@@ -12274,7 +12271,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="66"/>
       <c r="H59" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I59" s="47"/>
       <c r="J59" s="47"/>
@@ -12300,7 +12297,7 @@
         <v>322</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
@@ -12308,7 +12305,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="66"/>
       <c r="H60" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I60" s="47"/>
       <c r="J60" s="47"/>
@@ -14454,7 +14451,7 @@
         <v>269</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>728</v>
+        <v>531</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -14462,7 +14459,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="104"/>
       <c r="H45" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
@@ -14470,7 +14467,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="66"/>
       <c r="N45" s="20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O45" s="47"/>
       <c r="P45" s="47"/>
@@ -14488,7 +14485,7 @@
         <v>273</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -14502,7 +14499,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="66"/>
       <c r="N46" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O46" s="47"/>
       <c r="P46" s="47"/>
@@ -14520,7 +14517,7 @@
         <v>276</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -14528,7 +14525,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="66"/>
       <c r="H47" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I47" s="47"/>
       <c r="J47" s="47"/>
@@ -14536,7 +14533,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="66"/>
       <c r="N47" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
@@ -14554,7 +14551,7 @@
         <v>280</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -14562,7 +14559,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="66"/>
       <c r="H48" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
@@ -14570,7 +14567,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="66"/>
       <c r="N48" s="23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O48" s="47"/>
       <c r="P48" s="47"/>
@@ -14588,7 +14585,7 @@
         <v>284</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -14596,7 +14593,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="66"/>
       <c r="H49" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="47"/>
@@ -14604,7 +14601,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="66"/>
       <c r="N49" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
@@ -14622,7 +14619,7 @@
         <v>288</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -14630,7 +14627,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="66"/>
       <c r="H50" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I50" s="47"/>
       <c r="J50" s="47"/>
@@ -14666,7 +14663,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="66"/>
       <c r="N51" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
@@ -14684,7 +14681,7 @@
         <v>295</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -14692,7 +14689,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="66"/>
       <c r="H52" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I52" s="47"/>
       <c r="J52" s="47"/>
@@ -14716,7 +14713,7 @@
         <v>298</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -14724,7 +14721,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="66"/>
       <c r="H53" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I53" s="47"/>
       <c r="J53" s="47"/>
@@ -14748,7 +14745,7 @@
         <v>302</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -14780,7 +14777,7 @@
         <v>305</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -14810,7 +14807,7 @@
         <v>309</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -14818,7 +14815,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="66"/>
       <c r="H56" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I56" s="47"/>
       <c r="J56" s="47"/>
@@ -14842,7 +14839,7 @@
         <v>312</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -14850,7 +14847,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="66"/>
       <c r="H57" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I57" s="47"/>
       <c r="J57" s="47"/>
@@ -14876,7 +14873,7 @@
         <v>315</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
@@ -14884,7 +14881,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="66"/>
       <c r="H58" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I58" s="47"/>
       <c r="J58" s="47"/>
@@ -14910,7 +14907,7 @@
         <v>319</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
@@ -14918,7 +14915,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="66"/>
       <c r="H59" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I59" s="47"/>
       <c r="J59" s="47"/>
@@ -14944,7 +14941,7 @@
         <v>322</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
@@ -14952,7 +14949,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="66"/>
       <c r="H60" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I60" s="47"/>
       <c r="J60" s="47"/>
@@ -14960,7 +14957,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="66"/>
       <c r="N60" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O60" s="47"/>
       <c r="P60" s="47"/>
